--- a/要件仕様a.xlsx
+++ b/要件仕様a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Arduino_RaspberryPi\開発\08_棚ピカリ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE03C47-2140-46A4-B8BB-6BE477F855A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3C756F-CD8A-4A1F-A528-B0B1FC48D638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8430" yWindow="345" windowWidth="20520" windowHeight="15480" tabRatio="739" firstSheet="1" activeTab="6" xr2:uid="{10E33169-6FFE-4517-A0F7-180FCC84C7E1}"/>
+    <workbookView xWindow="1905" yWindow="7815" windowWidth="11265" windowHeight="7440" tabRatio="739" firstSheet="6" activeTab="6" xr2:uid="{10E33169-6FFE-4517-A0F7-180FCC84C7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="要件機能" sheetId="14" r:id="rId1"/>
@@ -43,21 +43,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="139">
   <si>
     <t>用途</t>
     <rPh sb="0" eb="2">
       <t>ヨウト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理係</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カカリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -68,16 +58,6 @@
     <t>利用可能F</t>
     <rPh sb="0" eb="4">
       <t>リヨウカノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理部門</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブモン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -157,13 +137,6 @@
   </si>
   <si>
     <t>M01_保管棚</t>
-  </si>
-  <si>
-    <t>物品数量</t>
-    <rPh sb="2" eb="4">
-      <t>スウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>物品型式</t>
@@ -727,24 +700,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>利用者</t>
-    <rPh sb="0" eb="2">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索Flag</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -943,16 +899,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>重複件数</t>
-    <rPh sb="0" eb="2">
-      <t>チョウフク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DUET_リール管理台帳</t>
     <rPh sb="8" eb="10">
       <t>カンリ</t>
@@ -1022,16 +968,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>T11_リール存在棚番</t>
-    <rPh sb="7" eb="9">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タナバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>T00_棚Pika検索履歴</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1039,33 +975,6 @@
     <t>※使用しない</t>
     <rPh sb="1" eb="3">
       <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>引き当て番号</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回納</t>
-    <rPh sb="0" eb="2">
-      <t>カイノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>連番</t>
-    <rPh sb="0" eb="2">
-      <t>レンバン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1153,9 +1062,147 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>統制期限</t>
+    <rPh sb="0" eb="4">
+      <t>トウセイキゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引当回納連番</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキアテ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>レンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物品数量</t>
+    <rPh sb="0" eb="2">
+      <t>ブッピン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引当番号</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキアテ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回納</t>
+    <rPh sb="0" eb="2">
+      <t>カイノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連番</t>
+    <rPh sb="0" eb="2">
+      <t>レンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品名</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型式</t>
+    <rPh sb="0" eb="2">
+      <t>カタシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統制期限</t>
+    <rPh sb="0" eb="4">
+      <t>トウセイキゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棚番</t>
+    <rPh sb="0" eb="2">
+      <t>タナバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not Null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保管ステータス</t>
+    <rPh sb="0" eb="2">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物品使用数量</t>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素品</t>
+    <rPh sb="0" eb="2">
+      <t>ソヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>有効期限</t>
     <rPh sb="0" eb="4">
       <t>ユウコウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yyyymmdd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not Null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T11_物品存在棚番</t>
+    <rPh sb="4" eb="6">
+      <t>ブッピン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タナバン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1433,6 +1480,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0000"/>
       <color rgb="FF4472C4"/>
     </mruColors>
   </colors>
@@ -39518,22 +39566,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1228BA06-B68D-49B7-BAF2-5AEA4AA067BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C14411-2E89-4E9C-AA17-A0BCAD287DC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -39541,732 +39589,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1249680" y="480060"/>
-          <a:ext cx="3467100" cy="1607820"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C74505A6-6093-4F07-822F-04A4C3009677}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1455420" y="883920"/>
-          <a:ext cx="1767840" cy="320040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>COM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ポート設定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A1E365-F6AE-43CF-BB5C-B94B70ECB844}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1455420" y="1257300"/>
-          <a:ext cx="1767840" cy="320040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>AccessDBPath</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>設定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7B8AB1C-2CFC-4294-A322-6D242A46B57C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1455420" y="1638300"/>
-          <a:ext cx="1767840" cy="320040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>段取りリスト保存先</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>設定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CA1FFF-3BB9-4E92-9237-95AE0948DAD6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3246120" y="883920"/>
-          <a:ext cx="1318260" cy="320040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>COM3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F016D96A-9E57-4D9C-94D8-431F7CC8E68B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3246120" y="1257300"/>
-          <a:ext cx="1318260" cy="320040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>\\C:test\DB.acess</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4467255-AE86-4497-9B47-61E18A357931}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3246120" y="1638300"/>
-          <a:ext cx="1318260" cy="320040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>\\D:test\</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27285E7A-BF80-4587-BDBD-305A5FA2D7AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1455420" y="525780"/>
-          <a:ext cx="1767840" cy="320040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>設定項目</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48626F8B-B31B-43CA-B89B-5B96102ABE73}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5524500" y="701040"/>
-          <a:ext cx="3467100" cy="1607820"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B69F87D9-4B8A-42D3-B8F4-5404445EB627}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5631180" y="746760"/>
-          <a:ext cx="1767840" cy="320040"/>
+          <a:off x="864870" y="135255"/>
+          <a:ext cx="1859280" cy="340995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -40298,26 +39622,13 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>COM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ポート設定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+            <a:t>ワークシート：設定</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -40325,23 +39636,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>499110</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D11B710-66E3-4926-A900-5DD404377DE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7D67F4-9FDD-4DA7-880D-85125B109B9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40349,238 +39660,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5631180" y="1188720"/>
-          <a:ext cx="3208020" cy="320040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>COM3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0A4F27-F0E0-4801-925B-E50A168793B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5631180" y="1684020"/>
-          <a:ext cx="1226820" cy="320040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>設定して閉じる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF4D123E-0E2B-4F9D-A758-99243E4E906D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7604760" y="1684020"/>
-          <a:ext cx="1226820" cy="320040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>設定せず閉じる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C14411-2E89-4E9C-AA17-A0BCAD287DC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1348740" y="106680"/>
-          <a:ext cx="1767840" cy="320040"/>
+          <a:off x="4766310" y="1832610"/>
+          <a:ext cx="1828800" cy="339090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -40612,12 +39693,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>COM</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ワークシート：設定</a:t>
+            <a:t>ポート設定画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -40626,23 +39715,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>708660</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>318135</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15">
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7D67F4-9FDD-4DA7-880D-85125B109B9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17054F58-6E44-4FDA-AF49-39AA25433A72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40650,8 +39739,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5524500" y="327660"/>
-          <a:ext cx="1767840" cy="320040"/>
+          <a:off x="2299335" y="4080510"/>
+          <a:ext cx="1828800" cy="339090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -40688,649 +39777,8 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ユーザーフォーム</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="コネクタ: カギ線 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EAE6808-DB2D-4853-A74A-166D48B66BE3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="10" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3223260" y="1043940"/>
-          <a:ext cx="2301240" cy="461010"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 85430"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03947C18-5E3E-4BB0-B640-7F78D6440DFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5524500" y="2910840"/>
-          <a:ext cx="3467100" cy="2171700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F1F7465-F2A8-43BD-95F3-9E8B74C200F6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5631180" y="2956560"/>
-          <a:ext cx="1767840" cy="320040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Path</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>を設定してください</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52EB8A75-A603-45EA-9F4C-D38122621764}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5631180" y="3352800"/>
-          <a:ext cx="3208020" cy="784860"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>C:test</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>DB.access</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F353EBAB-84E4-437B-BA02-5C57FF77FA9B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7604760" y="4579620"/>
-          <a:ext cx="1226820" cy="320040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>設定せず閉じる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>708660</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17054F58-6E44-4FDA-AF49-39AA25433A72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5524500" y="2537460"/>
-          <a:ext cx="1767840" cy="320040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>エクスプローラ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="コネクタ: カギ線 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490A3F2F-037A-4EA7-A293-185AC35203A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3223260" y="1417320"/>
-          <a:ext cx="2301240" cy="2137410"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="コネクタ: カギ線 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B09B6E-8BA8-43B7-B7D3-EDF0194DD9F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3223260" y="1798320"/>
-          <a:ext cx="2301240" cy="2061210"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCBE636-E40B-46CF-7BD8-AB298DBB0ACC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1249680" y="5760720"/>
-          <a:ext cx="3467100" cy="1607820"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>エクスプローラ画面</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -41340,13 +39788,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -41405,6 +39853,378 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>353732</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>143057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDB02AC-1318-A1D5-1DD5-BD7EBB72325A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="438150"/>
+          <a:ext cx="9364382" cy="1305107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>97163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="コネクタ: カギ線 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490A3F2F-037A-4EA7-A293-185AC35203A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="1152525"/>
+          <a:ext cx="2838450" cy="1744988"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10519</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB8EE7C-1E73-8861-8CB8-4D2FC1C081BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="2114550"/>
+          <a:ext cx="4306294" cy="1565925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6533</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24BF7B17-8E05-90C9-6F5E-B3FE14AB0B51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="4448175"/>
+          <a:ext cx="3740333" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>143372</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="コネクタ: カギ線 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA518801-3E5C-5B83-C526-C7D4A1933E8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="33" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="5472361" y="585539"/>
+          <a:ext cx="1028700" cy="2029322"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="コネクタ: カギ線 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60441758-57FB-DC36-4AE8-83F7E5095B67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="97631" y="3102768"/>
+          <a:ext cx="3890963" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285748</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>422368</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="コネクタ: カギ線 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DABAA33-7B96-F231-9A13-4359FE813BA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="1920920" y="2136728"/>
+          <a:ext cx="2962275" cy="1660620"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 30064"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -41485,13 +40305,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>716280</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -41506,8 +40326,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="716280" y="791391"/>
-          <a:ext cx="3839391" cy="3334295"/>
+          <a:off x="716280" y="824050"/>
+          <a:ext cx="3926477" cy="2972344"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -41548,16 +40368,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594361</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -41572,13 +40392,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="771253" y="4906191"/>
-          <a:ext cx="3903617" cy="1648098"/>
+          <a:off x="594361" y="4109357"/>
+          <a:ext cx="8413568" cy="2626179"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
@@ -41606,7 +40430,63 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テーブルを作成しない。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>保管棚、保管エリアの概念は残すが、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>作成時にはなくても運用可能のため。開発の手間を減らす。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -41681,13 +40561,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:colOff>30479</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>693420</xdr:colOff>
+      <xdr:colOff>993320</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
@@ -41704,8 +40584,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7406640" y="3436620"/>
-          <a:ext cx="2682240" cy="2293620"/>
+          <a:off x="9705158" y="4906191"/>
+          <a:ext cx="4010841" cy="1640478"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -41746,129 +40626,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190507</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1639</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB8C2EC-FF04-4167-88D2-496726904107}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4674870" y="5089078"/>
-          <a:ext cx="718457" cy="15240"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>111307</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>806359</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="コネクタ: カギ線 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8C46AA-6A6A-4D70-9BB5-ACDFE51515A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="4" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4642757" y="2560593"/>
-          <a:ext cx="2422888" cy="2345598"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>16328</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>170906</xdr:rowOff>
+      <xdr:rowOff>170907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>696685</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:colOff>979714</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -41883,8 +40650,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9691007" y="7314656"/>
-          <a:ext cx="3728357" cy="2523308"/>
+          <a:off x="9691007" y="7314657"/>
+          <a:ext cx="4011386" cy="2264772"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -41925,380 +40692,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>791936</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>15241</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>797379</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>170907</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="コネクタ: カギ線 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1982F42F-BFBD-4570-980E-252D058B7B62}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="0"/>
-          <a:endCxn id="5" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="11173914" y="6927942"/>
-          <a:ext cx="767987" cy="5443"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>137169</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>68588</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="グループ化 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA04CB50-0F7E-46B2-AAB1-263138222772}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4766310" y="4831633"/>
-          <a:ext cx="502920" cy="543741"/>
-          <a:chOff x="3543300" y="4091940"/>
-          <a:chExt cx="502920" cy="502920"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="12" name="直線コネクタ 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ABE86D3-C7B8-A3E4-EA9E-E5B74AF5961C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3848100" y="4091940"/>
-            <a:ext cx="0" cy="502920"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="13" name="直線コネクタ 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F84141-5344-75A3-3B10-252B3F60D3EF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="3848100" y="4145280"/>
-            <a:ext cx="198120" cy="198120"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="14" name="直線コネクタ 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{779ECAC5-846E-5CAF-90A6-6023E72E1E7B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3848100" y="4351020"/>
-            <a:ext cx="198120" cy="198120"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="15" name="直線コネクタ 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F3AF2A-E7F9-EC9E-346C-8096F846E91D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3543300" y="4091940"/>
-            <a:ext cx="0" cy="502920"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>545451</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>61411</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>90428</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>61411</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線コネクタ 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C51E7D-61E7-48F5-A845-76F969708F18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="11312511" y="5884180"/>
-          <a:ext cx="0" cy="502920"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>363582</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>363582</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>154577</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線コネクタ 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46D9FD9-2959-4E25-89C0-C7940FD2820D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4924696" y="2188028"/>
-          <a:ext cx="0" cy="513806"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>190496</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>185057</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -42358,13 +40760,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>48984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>21770</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -42424,13 +40826,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>55518</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>161109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>40278</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>97972</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -42490,13 +40892,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>206831</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>54430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>894012</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>34216</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -42512,7 +40914,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="1240886" y="15008768"/>
+          <a:off x="1240886" y="15825197"/>
           <a:ext cx="1612643" cy="687181"/>
           <a:chOff x="2980035" y="8169241"/>
           <a:chExt cx="1004053" cy="516970"/>
@@ -42745,13 +41147,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>6111</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>19595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>707570</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -42810,70 +41212,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>545450</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>7731</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>90427</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>7731</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="直線コネクタ 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5247C422-D64F-2C90-7572-93609D2458E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="11312510" y="6222385"/>
-          <a:ext cx="0" cy="502920"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>791936</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:colOff>792271</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>792270</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>19595</xdr:rowOff>
+      <xdr:colOff>933451</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>19594</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -42890,9 +41237,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8708466" y="12684684"/>
-          <a:ext cx="5693774" cy="334"/>
+        <a:xfrm rot="5400000">
+          <a:off x="8139688" y="12995261"/>
+          <a:ext cx="6972845" cy="141180"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -42926,13 +41273,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>534562</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>122103</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>79539</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>122103</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -42981,13 +41328,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>44240</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>136355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>56507</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>72708</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -43003,7 +41350,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="7289409">
-          <a:off x="4375250" y="15576524"/>
+          <a:off x="4375250" y="16392952"/>
           <a:ext cx="1365103" cy="692624"/>
           <a:chOff x="2980035" y="8169241"/>
           <a:chExt cx="1004053" cy="516970"/>
@@ -43236,13 +41583,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>484095</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>272143</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -43304,13 +41651,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>523679</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>89451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>68656</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>89451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -43359,13 +41706,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>819696</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>21769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>762004</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -43416,13 +41763,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>576943</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>119742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>576943</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>51161</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -43471,13 +41818,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>40278</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>145869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>6111</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>31569</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -43531,13 +41878,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>576943</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>576943</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>7618</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -43586,13 +41933,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>117020</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>150771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>377189</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>65863</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -43608,8 +41955,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="4650648" y="18245822"/>
-          <a:ext cx="527413" cy="260169"/>
+          <a:off x="4650648" y="19062250"/>
+          <a:ext cx="527414" cy="260169"/>
           <a:chOff x="8496300" y="3169920"/>
           <a:chExt cx="502920" cy="198120"/>
         </a:xfrm>
@@ -43741,13 +42088,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>207918</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>34838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>35923</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>154581</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -43763,7 +42110,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4875168" y="13097695"/>
+          <a:off x="4875168" y="13914124"/>
           <a:ext cx="508362" cy="527957"/>
           <a:chOff x="3192780" y="4091940"/>
           <a:chExt cx="502920" cy="502920"/>
@@ -43936,13 +42283,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>37011</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>97971</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>85811</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -43989,523 +42336,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190507</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>821327</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1639</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{103012E1-7F9C-2DF4-676C-E17F6B2D01F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8933906" y="5089078"/>
-          <a:ext cx="718457" cy="15240"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>194310</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>137169</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>697230</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>68588</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="31" name="グループ化 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D1082AF-B8CE-9B4F-50E1-60923B8C80B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9025346" y="4831633"/>
-          <a:ext cx="502920" cy="543741"/>
-          <a:chOff x="3543300" y="4091940"/>
-          <a:chExt cx="502920" cy="502920"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="32" name="直線コネクタ 31">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC205661-E9FF-81F8-6578-FD3F2B424F85}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3848100" y="4091940"/>
-            <a:ext cx="0" cy="502920"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="33" name="直線コネクタ 32">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09672016-1D80-9512-00E1-E0BE4F338C6C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="3848100" y="4145280"/>
-            <a:ext cx="198120" cy="198120"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="34" name="直線コネクタ 33">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D637CE9-0928-D8D8-15B0-3B508A8FF711}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3848100" y="4351020"/>
-            <a:ext cx="198120" cy="198120"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="35" name="直線コネクタ 34">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A17D359-10CA-A0E4-7DB3-A3ACA82F21A8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3543300" y="4091940"/>
-            <a:ext cx="0" cy="502920"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>797379</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="コネクタ: カギ線 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19C008AA-EFAB-8AF5-405E-A67AA74AD114}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4667250" y="1537607"/>
-          <a:ext cx="6893379" cy="3368584"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>523604</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>68581</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>197575</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="50" name="グループ化 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49E5205-1F4A-803B-12CF-D7322841C30F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11286854" y="4623706"/>
-          <a:ext cx="524691" cy="268333"/>
-          <a:chOff x="8496300" y="3169920"/>
-          <a:chExt cx="502920" cy="198120"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="51" name="直線コネクタ 50">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F16314C-57DD-B812-EB36-EAD0404A34EF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="5400000">
-            <a:off x="8747760" y="2918460"/>
-            <a:ext cx="0" cy="502920"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="52" name="直線コネクタ 51">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34FD9CF6-7110-D1D8-3D73-96AEBCD2E865}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="5400000" flipV="1">
-            <a:off x="8747760" y="3169920"/>
-            <a:ext cx="198120" cy="198120"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="53" name="直線コネクタ 52">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE85140E-AF63-8DD1-4723-D7A3CE64D8D4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="5400000">
-            <a:off x="8542020" y="3169920"/>
-            <a:ext cx="198120" cy="198120"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>586272</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>75020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>199285</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>75020</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="直線コネクタ 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8293D269-C900-C3B0-C44A-0865DE34B08E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7107904" y="4303031"/>
-          <a:ext cx="0" cy="524691"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>669472</xdr:colOff>
       <xdr:row>36</xdr:row>
@@ -44514,8 +42344,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>721179</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -44531,7 +42361,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5336722" y="7402286"/>
-          <a:ext cx="3467100" cy="2163535"/>
+          <a:ext cx="3467100" cy="1592035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -44573,9 +42403,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>419645</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>123551</xdr:rowOff>
+      <xdr:colOff>405190</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>54432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -44595,9 +42425,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipV="1">
-          <a:off x="7239000" y="10068196"/>
-          <a:ext cx="718457" cy="15240"/>
+        <a:xfrm>
+          <a:off x="7576154" y="9035146"/>
+          <a:ext cx="29695" cy="1399898"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -44629,8 +42459,8 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>139065</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>34019</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>115663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -44651,10 +42481,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="7330440" y="9810751"/>
-          <a:ext cx="502920" cy="543741"/>
-          <a:chOff x="3543300" y="4091940"/>
-          <a:chExt cx="502920" cy="502920"/>
+          <a:off x="7065101" y="9545412"/>
+          <a:ext cx="1033598" cy="543741"/>
+          <a:chOff x="3012622" y="4091940"/>
+          <a:chExt cx="1033598" cy="502920"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -44790,7 +42620,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3543300" y="4091940"/>
+            <a:off x="3012622" y="4091940"/>
             <a:ext cx="0" cy="502920"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -44830,8 +42660,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>721179</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>10885</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -44847,7 +42677,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5336722" y="10395856"/>
-          <a:ext cx="3467100" cy="636815"/>
+          <a:ext cx="3467100" cy="2027465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -45028,7 +42858,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>966108</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>176892</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -46192,346 +44022,44 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>639535</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>91354</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>65043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>164388</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>22775</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>947329</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="86" name="グループ化 85">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="コネクタ: カギ線 98">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DE44AD-96B9-669F-0A2B-4873BB93BF9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D59B197-B843-71F4-A931-6AB3FF3E5457}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm rot="19051007">
-          <a:off x="8722178" y="6622783"/>
-          <a:ext cx="1116889" cy="543742"/>
-          <a:chOff x="8728430" y="6541141"/>
-          <a:chExt cx="1219495" cy="543742"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="83" name="グループ化 82">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3D3E987-7715-BDD0-DF9F-563C8DE0ECBD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="10800000">
-            <a:off x="8728430" y="6541141"/>
-            <a:ext cx="1219495" cy="543742"/>
-            <a:chOff x="8925890" y="6573346"/>
-            <a:chExt cx="718457" cy="543742"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="24" name="グループ化 23">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40BFC430-1EDE-AE28-8F6A-71DE2C64147C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="9046021" y="6573346"/>
-              <a:ext cx="465131" cy="543742"/>
-              <a:chOff x="3455118" y="4091940"/>
-              <a:chExt cx="465131" cy="502921"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="38" name="直線コネクタ 37">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E39A2102-F7E0-2C90-3514-B7FAFAA79754}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvCxnSpPr/>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3920249" y="4091940"/>
-                <a:ext cx="0" cy="502920"/>
-              </a:xfrm>
-              <a:prstGeom prst="line">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="81" name="直線コネクタ 80">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{426134F8-8DC0-95F3-840A-B7E8E9E34B3A}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvCxnSpPr/>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3455118" y="4091941"/>
-                <a:ext cx="0" cy="502920"/>
-              </a:xfrm>
-              <a:prstGeom prst="line">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="accent1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-        </xdr:grpSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="82" name="直線コネクタ 81">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674C4BD0-89C9-7743-210B-D3FAE9296018}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipV="1">
-              <a:off x="8925890" y="6858006"/>
-              <a:ext cx="718457" cy="15240"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="84" name="楕円 83">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E72E440-2C20-7299-D26E-3C3E27D4288D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8967106" y="6694715"/>
-            <a:ext cx="258536" cy="272143"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:sysClr val="window" lastClr="FFFFFF"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>653143</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>889926</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="楕円 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83DED244-EB85-4092-A126-DC4A060E3136}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="19051007">
-          <a:off x="11416393" y="6898822"/>
-          <a:ext cx="236783" cy="272143"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>363582</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>46264</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>363582</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>168184</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="直線コネクタ 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E7ABAD-0722-A5AC-26C3-44F0B41B5216}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5030832" y="1270907"/>
-          <a:ext cx="0" cy="530134"/>
+          <a:off x="4642757" y="2310222"/>
+          <a:ext cx="7067822" cy="2595969"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="38100">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -46553,128 +44081,241 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>680357</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>721178</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>5462</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30479</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="楕円 88">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="コネクタ: カギ線 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A58601E-504F-4015-B8E9-974FC48E7947}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD920A2-6472-6607-4B6F-5096A2D96E12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="19051007">
-          <a:off x="6939643" y="4340679"/>
-          <a:ext cx="236783" cy="272143"/>
+        <a:xfrm>
+          <a:off x="8803821" y="5293179"/>
+          <a:ext cx="901337" cy="433251"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>312964</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>748392</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>549747</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>197303</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="楕円 89">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="コネクタ: カギ線 107">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E5906C-643C-B1A1-1A3E-33E2D45FDBED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59070A79-7DCC-3871-55AB-FDA09E47C923}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="19051007">
-          <a:off x="9144000" y="4966608"/>
-          <a:ext cx="236783" cy="272143"/>
+        <a:xfrm>
+          <a:off x="4667249" y="5293179"/>
+          <a:ext cx="680358" cy="415017"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>680360</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="コネクタ: カギ線 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B27A93-6920-6D1B-AD8B-974ACC313058}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="8763003" y="6531429"/>
+          <a:ext cx="938891" cy="911678"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>947329</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>170908</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="コネクタ: カギ線 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A896BD-3F0E-3811-C89C-5D878EB9047D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11319646" y="6923724"/>
+          <a:ext cx="767988" cy="13879"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -52389,39 +50030,39 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -52429,7 +50070,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -52437,7 +50078,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -52445,7 +50086,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -52453,17 +50094,17 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -52565,7 +50206,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25"/>
@@ -52580,7 +50221,7 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -52615,7 +50256,7 @@
       <c r="E16" s="8"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -52627,14 +50268,14 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E17" s="8"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -52646,14 +50287,14 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E18" s="8"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -52665,14 +50306,14 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E19" s="8"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -52684,14 +50325,14 @@
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E20" s="8"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -52703,14 +50344,14 @@
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
       <c r="V20" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E21" s="8"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -52722,14 +50363,14 @@
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E22" s="8"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -52741,14 +50382,14 @@
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
       <c r="V22" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E23" s="8"/>
       <c r="K23" s="9"/>
       <c r="L23" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M23" s="15">
         <v>33</v>
@@ -52762,14 +50403,14 @@
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
       <c r="V23" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E24" s="8"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -52781,14 +50422,14 @@
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
       <c r="V24" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E25" s="8"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -52800,14 +50441,14 @@
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
       <c r="V25" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E26" s="8"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -52819,14 +50460,14 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E27" s="8"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -52838,14 +50479,14 @@
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
       <c r="V27" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E28" s="8"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -52857,17 +50498,17 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E29" s="8"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
@@ -52878,14 +50519,14 @@
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
       <c r="V29" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D30" s="12"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -52897,22 +50538,22 @@
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
       <c r="V30" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D31" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -52924,17 +50565,17 @@
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
       <c r="V31" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D32" s="12"/>
       <c r="H32" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -52946,20 +50587,20 @@
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
       <c r="V32" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E33" s="8"/>
       <c r="F33" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M33" s="10"/>
       <c r="N33" s="9"/>
@@ -52971,22 +50612,22 @@
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E34" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
@@ -52997,7 +50638,7 @@
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="5:23" x14ac:dyDescent="0.25">
@@ -53112,7 +50753,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -53297,8 +50938,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -53314,10 +50955,10 @@
   <sheetPr codeName="Sheet5">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -53334,7 +50975,7 @@
     <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" customWidth="1"/>
     <col min="16" max="16" width="7.77734375" customWidth="1"/>
     <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="23" width="12.33203125" customWidth="1"/>
@@ -53345,32 +50986,32 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -53378,202 +51019,190 @@
         <v>1</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="24" t="s">
-        <v>76</v>
+      <c r="C9" t="s">
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>80</v>
+      <c r="C13" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
-      </c>
-    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L24" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="S24" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="M25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="T25" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
@@ -53581,75 +51210,81 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N26" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="O26" t="s">
+        <v>137</v>
       </c>
       <c r="S26">
         <v>1</v>
       </c>
       <c r="T26" s="24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N27" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="O27" t="s">
+        <v>137</v>
       </c>
       <c r="S27">
         <v>1</v>
       </c>
       <c r="T27" s="24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U27" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
@@ -53657,79 +51292,82 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28" s="24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N28" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="O28" t="s">
+        <v>137</v>
       </c>
       <c r="T28" s="24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="U28" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M29" s="24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T29" s="24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U29" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="M30" s="24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O30" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="M31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25"/>
@@ -53737,74 +51375,74 @@
     <row r="34" spans="2:22" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="S35" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="L36" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="M37" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S37">
         <v>1</v>
       </c>
       <c r="T37" s="24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
@@ -53812,34 +51450,37 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38" s="24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N38" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="O38" t="s">
+        <v>137</v>
       </c>
       <c r="S38">
         <v>1</v>
       </c>
       <c r="T38" s="24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U38" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
@@ -53847,868 +51488,932 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>113</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
       </c>
       <c r="H39" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39" t="s">
+        <v>121</v>
+      </c>
+      <c r="M39" t="s">
+        <v>100</v>
+      </c>
+      <c r="N39" t="s">
+        <v>83</v>
+      </c>
+      <c r="T39" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I39" t="s">
-        <v>72</v>
-      </c>
-      <c r="L39" t="s">
-        <v>8</v>
-      </c>
-      <c r="M39" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39" t="s">
-        <v>72</v>
-      </c>
-      <c r="T39" s="24" t="s">
-        <v>24</v>
-      </c>
       <c r="U39" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>69</v>
+      </c>
+      <c r="L40" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I40" t="s">
-        <v>72</v>
+      <c r="N40" t="s">
+        <v>69</v>
       </c>
-      <c r="M40" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="N40" t="s">
-        <v>72</v>
+      <c r="O40" t="s">
+        <v>121</v>
       </c>
       <c r="T40" s="24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U40" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H41" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
-      <c r="M41" t="s">
-        <v>20</v>
+      <c r="M41" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="N41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S41" s="27" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H42" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="I42" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I43" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H44" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="I44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M44" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="N44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="H45" t="s">
-        <v>121</v>
-      </c>
-      <c r="I45" t="s">
-        <v>71</v>
+      <c r="G45" t="s">
+        <v>105</v>
       </c>
       <c r="M45" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>119</v>
+      </c>
       <c r="M46" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="N46" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="M47" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="N47" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="O47" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="G48" t="s">
-        <v>111</v>
-      </c>
-      <c r="M48" t="s">
-        <v>130</v>
+      <c r="L48" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G49" t="s">
-        <v>129</v>
-      </c>
-      <c r="L49" t="s">
-        <v>114</v>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G51" t="s">
-        <v>107</v>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="I53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>124</v>
+      </c>
+      <c r="I54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>125</v>
+      </c>
+      <c r="I55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>130</v>
+      </c>
+      <c r="I56" t="s">
+        <v>69</v>
+      </c>
+      <c r="J56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>126</v>
+      </c>
+      <c r="I57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>127</v>
+      </c>
+      <c r="I58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>128</v>
+      </c>
+      <c r="I59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>129</v>
+      </c>
+      <c r="I60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>132</v>
+      </c>
+      <c r="I61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H54" t="s">
-        <v>106</v>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>60</v>
       </c>
-      <c r="I54" t="s">
-        <v>72</v>
+      <c r="G64" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>74</v>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66">
         <v>1</v>
       </c>
-      <c r="C62" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" t="s">
-        <v>71</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
-        <v>51</v>
-      </c>
-      <c r="I62" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" t="s">
-        <v>72</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63" t="s">
-        <v>65</v>
-      </c>
-      <c r="I63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" t="s">
-        <v>72</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64" t="s">
-        <v>52</v>
-      </c>
-      <c r="I64" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" t="s">
-        <v>72</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
-        <v>53</v>
-      </c>
-      <c r="I65" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
       <c r="C66" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>8</v>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D67" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="I67" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
       </c>
       <c r="H68" t="s">
         <v>49</v>
       </c>
       <c r="I68" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
       <c r="C69" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D69" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
       </c>
       <c r="H69" t="s">
         <v>50</v>
       </c>
       <c r="I69" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
       <c r="C70" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>51</v>
+      </c>
+      <c r="I70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
         <v>47</v>
       </c>
-      <c r="D70" t="s">
-        <v>72</v>
+      <c r="D71" t="s">
+        <v>69</v>
       </c>
-      <c r="G70" t="s">
-        <v>8</v>
+      <c r="H71" t="s">
+        <v>45</v>
       </c>
-      <c r="H70" t="s">
-        <v>56</v>
-      </c>
-      <c r="I70" t="s">
-        <v>72</v>
+      <c r="I71" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H71" t="s">
-        <v>62</v>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>42</v>
       </c>
-      <c r="I71" t="s">
-        <v>71</v>
+      <c r="D72" t="s">
+        <v>68</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H72" t="s">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="G74" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" t="s">
+        <v>53</v>
+      </c>
+      <c r="I74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>59</v>
+      </c>
+      <c r="I75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>58</v>
+      </c>
+      <c r="I76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>54</v>
+      </c>
+      <c r="I77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
         <v>61</v>
       </c>
-      <c r="I72" t="s">
-        <v>71</v>
+      <c r="I78" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H73" t="s">
-        <v>57</v>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L81" s="22" t="s">
+        <v>70</v>
       </c>
-      <c r="I73" t="s">
-        <v>72</v>
+      <c r="O81" s="22" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H74" t="s">
-        <v>64</v>
-      </c>
-      <c r="I74" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L76" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L77" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="M77" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="N77" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="O77" s="22" t="s">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L82" s="22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L78" s="21">
-        <v>1</v>
+      <c r="M82" s="22" t="s">
+        <v>12</v>
       </c>
-      <c r="M78" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="N78" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="O78" s="21"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L79" s="21">
-        <v>1</v>
-      </c>
-      <c r="M79" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="N79" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="O79" s="21"/>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L80" s="21">
-        <v>1</v>
-      </c>
-      <c r="M80" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="N80" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="O80" s="21"/>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>69</v>
-      </c>
-      <c r="L81" s="21">
-        <v>1</v>
-      </c>
-      <c r="M81" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="N81" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="O81" s="21"/>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L82" s="21">
-        <v>1</v>
-      </c>
-      <c r="M82" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="N82" s="21" t="s">
-        <v>104</v>
+      <c r="N82" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="O82" s="21"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B83">
+      <c r="L83" s="21">
         <v>1</v>
       </c>
-      <c r="C83" t="s">
-        <v>46</v>
-      </c>
-      <c r="D83" t="s">
-        <v>72</v>
-      </c>
-      <c r="L83" s="21" t="s">
-        <v>8</v>
-      </c>
       <c r="M83" s="21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N83" s="21" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O83" s="21"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B84">
+      <c r="L84" s="21">
         <v>1</v>
       </c>
-      <c r="C84" t="s">
-        <v>70</v>
-      </c>
-      <c r="D84" t="s">
-        <v>71</v>
-      </c>
-      <c r="L84" s="21" t="s">
-        <v>8</v>
-      </c>
       <c r="M84" s="21" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="N84" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O84" s="21"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B85">
+      <c r="B85" t="s">
+        <v>66</v>
+      </c>
+      <c r="L85" s="21">
         <v>1</v>
       </c>
-      <c r="C85" t="s">
-        <v>58</v>
+      <c r="M85" s="21" t="s">
+        <v>55</v>
       </c>
-      <c r="D85" t="s">
-        <v>72</v>
+      <c r="N85" s="21" t="s">
+        <v>95</v>
       </c>
-      <c r="L85" t="s">
-        <v>8</v>
-      </c>
-      <c r="M85" t="s">
-        <v>50</v>
-      </c>
-      <c r="N85" t="s">
-        <v>100</v>
-      </c>
+      <c r="O85" s="21"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B86">
+      <c r="B86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L86" s="21">
         <v>1</v>
       </c>
-      <c r="C86" t="s">
-        <v>59</v>
-      </c>
-      <c r="D86" t="s">
-        <v>71</v>
-      </c>
-      <c r="L86" t="s">
-        <v>8</v>
-      </c>
-      <c r="M86" t="s">
+      <c r="M86" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="N86" t="s">
-        <v>100</v>
+      <c r="N86" s="21" t="s">
+        <v>99</v>
       </c>
+      <c r="O86" s="21"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D87" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
-      <c r="M87" t="s">
+      <c r="L87" s="21">
+        <v>1</v>
+      </c>
+      <c r="M87" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="N87" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="O87" s="21"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>67</v>
+      </c>
+      <c r="D88" t="s">
+        <v>68</v>
+      </c>
+      <c r="L88" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M88" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N88" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="O88" s="21"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
         <v>55</v>
       </c>
-      <c r="N87" t="s">
-        <v>100</v>
+      <c r="D89" t="s">
+        <v>69</v>
       </c>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>8</v>
+      <c r="L89" s="21" t="s">
+        <v>6</v>
       </c>
-      <c r="C88" t="s">
-        <v>48</v>
+      <c r="M89" s="21" t="s">
+        <v>46</v>
       </c>
-      <c r="D88" t="s">
-        <v>72</v>
-      </c>
-      <c r="M88" t="s">
-        <v>103</v>
-      </c>
-      <c r="N88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" t="s">
-        <v>49</v>
-      </c>
-      <c r="D89" t="s">
-        <v>72</v>
-      </c>
-      <c r="M89" t="s">
-        <v>62</v>
-      </c>
-      <c r="N89" t="s">
-        <v>104</v>
+      <c r="N89" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>8</v>
+      <c r="B90">
+        <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D90" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="L90" t="s">
+        <v>6</v>
       </c>
       <c r="M90" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="N90" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>8</v>
+      <c r="B91">
+        <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D91" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="L91" t="s">
+        <v>6</v>
       </c>
       <c r="M91" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="N91" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
       <c r="C92" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D92" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M92" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="N92" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
       <c r="C93" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="D93" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M93" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N93" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
       <c r="C94" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D94" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M94" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="N94" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
       <c r="C95" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
-      <c r="D95" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="L95">
-        <v>1</v>
+      <c r="D95" t="s">
+        <v>69</v>
       </c>
       <c r="M95" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N95" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="D96" t="s">
-        <v>71</v>
-      </c>
-      <c r="L96">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="M96" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="N96" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="D97" t="s">
-        <v>71</v>
-      </c>
-      <c r="E97" t="s">
-        <v>98</v>
-      </c>
-      <c r="L97">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="M97" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="N97" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="D98" t="s">
-        <v>72</v>
-      </c>
-      <c r="E98" t="s">
-        <v>98</v>
-      </c>
-      <c r="L98">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="M98" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="N98" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
-      <c r="D99" t="s">
-        <v>102</v>
-      </c>
-      <c r="L99">
-        <v>1</v>
+      <c r="D99" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="M99" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="N99" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>94</v>
+      </c>
+      <c r="D100" t="s">
+        <v>68</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
       <c r="M100" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N100" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>65</v>
+      </c>
+      <c r="D101" t="s">
+        <v>68</v>
+      </c>
+      <c r="E101" t="s">
+        <v>93</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
       <c r="M101" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N101" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="3:14" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="3:14" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="3:14" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="3:14" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>92</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" t="s">
+        <v>93</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102" t="s">
+        <v>49</v>
+      </c>
+      <c r="N102" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>96</v>
+      </c>
+      <c r="D103" t="s">
+        <v>97</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103" t="s">
+        <v>50</v>
+      </c>
+      <c r="N103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104" t="s">
+        <v>51</v>
+      </c>
+      <c r="N104" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M105" t="s">
+        <v>54</v>
+      </c>
+      <c r="N105" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M106" t="s">
+        <v>61</v>
+      </c>
+      <c r="N106" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="107" spans="3:14" x14ac:dyDescent="0.25"/>
     <row r="108" spans="3:14" x14ac:dyDescent="0.25"/>
     <row r="109" spans="3:14" x14ac:dyDescent="0.25"/>
     <row r="110" spans="3:14" x14ac:dyDescent="0.25"/>
     <row r="111" spans="3:14" x14ac:dyDescent="0.25"/>
     <row r="112" spans="3:14" x14ac:dyDescent="0.25"/>
+    <row r="113" x14ac:dyDescent="0.25"/>
+    <row r="114" x14ac:dyDescent="0.25"/>
+    <row r="115" x14ac:dyDescent="0.25"/>
+    <row r="116" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/要件仕様a.xlsx
+++ b/要件仕様a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Arduino_RaspberryPi\開発\08_棚ピカリ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3C756F-CD8A-4A1F-A528-B0B1FC48D638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B460806C-716E-4CB5-990F-BCBA4BB51002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="7815" windowWidth="11265" windowHeight="7440" tabRatio="739" firstSheet="6" activeTab="6" xr2:uid="{10E33169-6FFE-4517-A0F7-180FCC84C7E1}"/>
+    <workbookView xWindow="675" yWindow="510" windowWidth="16305" windowHeight="13440" tabRatio="739" firstSheet="6" activeTab="6" xr2:uid="{10E33169-6FFE-4517-A0F7-180FCC84C7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="要件機能" sheetId="14" r:id="rId1"/>
@@ -50958,7 +50958,7 @@
   <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -51051,16 +51051,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>78</v>
+      <c r="C9" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -51068,23 +51068,23 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="24" t="s">
-        <v>76</v>
+      <c r="C13" t="s">
+        <v>77</v>
       </c>
       <c r="D13" t="s">
         <v>69</v>
@@ -51092,10 +51092,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">

--- a/要件仕様a.xlsx
+++ b/要件仕様a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Arduino_RaspberryPi\開発\08_棚ピカリ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B460806C-716E-4CB5-990F-BCBA4BB51002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5355A70-27B2-4581-949F-77F32D665E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="510" windowWidth="16305" windowHeight="13440" tabRatio="739" firstSheet="6" activeTab="6" xr2:uid="{10E33169-6FFE-4517-A0F7-180FCC84C7E1}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="13680" windowHeight="11295" tabRatio="739" firstSheet="6" activeTab="6" xr2:uid="{10E33169-6FFE-4517-A0F7-180FCC84C7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="要件機能" sheetId="14" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="137">
   <si>
     <t>用途</t>
     <rPh sb="0" eb="2">
@@ -700,10 +700,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>改善後のフロー</t>
     <rPh sb="0" eb="2">
       <t>カイゼン</t>
@@ -887,16 +883,6 @@
   </si>
   <si>
     <t>Long</t>
-  </si>
-  <si>
-    <t>使用日時</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>DUET_リール管理台帳</t>
@@ -50033,7 +50019,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -50049,7 +50035,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -50057,7 +50043,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -50078,7 +50064,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -50086,7 +50072,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -50094,17 +50080,17 @@
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -50957,8 +50943,8 @@
   </sheetPr>
   <dimension ref="A1:AA116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="E17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -50997,7 +50983,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -51025,7 +51011,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -51036,7 +51022,7 @@
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -51047,7 +51033,7 @@
         <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -51140,19 +51126,19 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
@@ -51234,7 +51220,7 @@
         <v>69</v>
       </c>
       <c r="O26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -51275,7 +51261,7 @@
         <v>69</v>
       </c>
       <c r="O27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -51284,7 +51270,7 @@
         <v>4</v>
       </c>
       <c r="U27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
@@ -51313,13 +51299,13 @@
         <v>69</v>
       </c>
       <c r="O28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T28" s="24" t="s">
         <v>21</v>
       </c>
       <c r="U28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
@@ -51345,7 +51331,7 @@
         <v>19</v>
       </c>
       <c r="U29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
@@ -51375,15 +51361,15 @@
     <row r="34" spans="2:22" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="S35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>13</v>
@@ -51450,7 +51436,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -51471,7 +51457,7 @@
         <v>68</v>
       </c>
       <c r="O38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -51480,7 +51466,7 @@
         <v>4</v>
       </c>
       <c r="U38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
@@ -51488,7 +51474,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -51500,24 +51486,30 @@
         <v>69</v>
       </c>
       <c r="J39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
-      <c r="M39" t="s">
-        <v>100</v>
+      <c r="L39" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="N39" t="s">
-        <v>83</v>
+        <v>69</v>
+      </c>
+      <c r="O39" t="s">
+        <v>119</v>
       </c>
       <c r="T39" s="24" t="s">
         <v>21</v>
       </c>
       <c r="U39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H40" t="s">
         <v>17</v>
@@ -51525,28 +51517,22 @@
       <c r="I40" t="s">
         <v>69</v>
       </c>
-      <c r="L40" t="s">
-        <v>6</v>
-      </c>
-      <c r="M40" s="24" t="s">
-        <v>20</v>
+      <c r="M40" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="N40" t="s">
         <v>69</v>
-      </c>
-      <c r="O40" t="s">
-        <v>121</v>
       </c>
       <c r="T40" s="24" t="s">
         <v>19</v>
       </c>
       <c r="U40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H41" t="s">
         <v>16</v>
@@ -51554,28 +51540,28 @@
       <c r="I41" t="s">
         <v>69</v>
       </c>
-      <c r="M41" s="23" t="s">
-        <v>18</v>
+      <c r="M41" t="s">
+        <v>17</v>
       </c>
       <c r="N41" t="s">
         <v>69</v>
       </c>
       <c r="S41" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I42" t="s">
         <v>68</v>
       </c>
       <c r="M42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N42" t="s">
         <v>69</v>
@@ -51583,81 +51569,74 @@
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I43" t="s">
         <v>68</v>
       </c>
       <c r="M43" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="N43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I44" t="s">
         <v>69</v>
       </c>
       <c r="M44" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="N44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M45" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="N45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M46" t="s">
+        <v>133</v>
+      </c>
+      <c r="N46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O46" t="s">
         <v>134</v>
       </c>
-      <c r="N46" t="s">
-        <v>68</v>
-      </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M47" t="s">
-        <v>135</v>
-      </c>
-      <c r="N47" t="s">
-        <v>69</v>
-      </c>
-      <c r="O47" t="s">
-        <v>136</v>
-      </c>
-    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25"/>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25"/>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
@@ -51679,7 +51658,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I53" t="s">
         <v>69</v>
@@ -51690,7 +51669,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I54" t="s">
         <v>68</v>
@@ -51701,7 +51680,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I55" t="s">
         <v>68</v>
@@ -51709,18 +51688,18 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I56" t="s">
         <v>69</v>
       </c>
       <c r="J56" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H57" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I57" t="s">
         <v>69</v>
@@ -51728,7 +51707,7 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H58" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I58" t="s">
         <v>69</v>
@@ -51736,7 +51715,7 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H59" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I59" t="s">
         <v>68</v>
@@ -51744,7 +51723,7 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I60" t="s">
         <v>69</v>
@@ -51752,7 +51731,7 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I61" t="s">
         <v>69</v>
@@ -52022,7 +52001,7 @@
         <v>43</v>
       </c>
       <c r="N83" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O83" s="21"/>
     </row>
@@ -52034,7 +52013,7 @@
         <v>67</v>
       </c>
       <c r="N84" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O84" s="21"/>
     </row>
@@ -52049,7 +52028,7 @@
         <v>55</v>
       </c>
       <c r="N85" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O85" s="21"/>
     </row>
@@ -52073,7 +52052,7 @@
         <v>56</v>
       </c>
       <c r="N86" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O86" s="21"/>
     </row>
@@ -52094,7 +52073,7 @@
         <v>57</v>
       </c>
       <c r="N87" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O87" s="21"/>
     </row>
@@ -52115,7 +52094,7 @@
         <v>45</v>
       </c>
       <c r="N88" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O88" s="21"/>
     </row>
@@ -52136,7 +52115,7 @@
         <v>46</v>
       </c>
       <c r="N89" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.25">
@@ -52156,7 +52135,7 @@
         <v>47</v>
       </c>
       <c r="N90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
@@ -52176,7 +52155,7 @@
         <v>53</v>
       </c>
       <c r="N91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.25">
@@ -52193,7 +52172,7 @@
         <v>52</v>
       </c>
       <c r="N92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.25">
@@ -52207,10 +52186,10 @@
         <v>69</v>
       </c>
       <c r="M93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.25">
@@ -52227,7 +52206,7 @@
         <v>59</v>
       </c>
       <c r="N94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.25">
@@ -52244,7 +52223,7 @@
         <v>58</v>
       </c>
       <c r="N95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.25">
@@ -52255,15 +52234,15 @@
         <v>69</v>
       </c>
       <c r="M96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D97" t="s">
         <v>69</v>
@@ -52272,7 +52251,7 @@
         <v>65</v>
       </c>
       <c r="N97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="3:14" x14ac:dyDescent="0.25">
@@ -52283,10 +52262,10 @@
         <v>68</v>
       </c>
       <c r="M98" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="3:14" x14ac:dyDescent="0.25">
@@ -52297,15 +52276,15 @@
         <v>68</v>
       </c>
       <c r="M99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D100" t="s">
         <v>68</v>
@@ -52328,7 +52307,7 @@
         <v>68</v>
       </c>
       <c r="E101" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L101">
         <v>1</v>
@@ -52342,13 +52321,13 @@
     </row>
     <row r="102" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" t="s">
         <v>69</v>
       </c>
       <c r="E102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L102">
         <v>1</v>
@@ -52362,10 +52341,10 @@
     </row>
     <row r="103" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L103">
         <v>1</v>

--- a/要件仕様a.xlsx
+++ b/要件仕様a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Arduino_RaspberryPi\開発\08_棚ピカリ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5355A70-27B2-4581-949F-77F32D665E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B0DD62-F110-431A-A2BA-9F320ABF148C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="13680" windowHeight="11295" tabRatio="739" firstSheet="6" activeTab="6" xr2:uid="{10E33169-6FFE-4517-A0F7-180FCC84C7E1}"/>
+    <workbookView xWindow="38790" yWindow="3960" windowWidth="13680" windowHeight="11295" tabRatio="739" firstSheet="6" activeTab="6" xr2:uid="{10E33169-6FFE-4517-A0F7-180FCC84C7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="要件機能" sheetId="14" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="136">
   <si>
     <t>用途</t>
     <rPh sb="0" eb="2">
@@ -1064,16 +1064,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>レンバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>物品数量</t>
-    <rPh sb="0" eb="2">
-      <t>ブッピン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>スウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -50944,7 +50934,7 @@
   <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -51011,7 +51001,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -51022,7 +51012,7 @@
         <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -51033,7 +51023,7 @@
         <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -51220,7 +51210,7 @@
         <v>69</v>
       </c>
       <c r="O26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -51261,7 +51251,7 @@
         <v>69</v>
       </c>
       <c r="O27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -51299,7 +51289,7 @@
         <v>69</v>
       </c>
       <c r="O28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T28" s="24" t="s">
         <v>21</v>
@@ -51366,7 +51356,7 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L36" t="s">
         <v>108</v>
@@ -51457,7 +51447,7 @@
         <v>68</v>
       </c>
       <c r="O38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -51555,7 +51545,7 @@
         <v>114</v>
       </c>
       <c r="H42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I42" t="s">
         <v>68</v>
@@ -51572,13 +51562,13 @@
         <v>115</v>
       </c>
       <c r="H43" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N43" t="s">
         <v>68</v>
@@ -51587,12 +51577,6 @@
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>116</v>
-      </c>
-      <c r="H44" t="s">
-        <v>130</v>
-      </c>
-      <c r="I44" t="s">
-        <v>69</v>
       </c>
       <c r="M44" t="s">
         <v>82</v>
@@ -51606,7 +51590,7 @@
         <v>103</v>
       </c>
       <c r="M45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N45" t="s">
         <v>68</v>
@@ -51617,13 +51601,13 @@
         <v>117</v>
       </c>
       <c r="M46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25"/>
@@ -51658,7 +51642,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I53" t="s">
         <v>69</v>
@@ -51669,7 +51653,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I54" t="s">
         <v>68</v>
@@ -51680,7 +51664,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I55" t="s">
         <v>68</v>
@@ -51688,18 +51672,18 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
         <v>69</v>
       </c>
       <c r="J56" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I57" t="s">
         <v>69</v>
@@ -51707,7 +51691,7 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I58" t="s">
         <v>69</v>
@@ -51715,7 +51699,7 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I59" t="s">
         <v>68</v>
@@ -51723,7 +51707,7 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I60" t="s">
         <v>69</v>
@@ -51731,7 +51715,7 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I61" t="s">
         <v>69</v>

--- a/要件仕様a.xlsx
+++ b/要件仕様a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Arduino_RaspberryPi\開発\08_棚ピカリ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B0DD62-F110-431A-A2BA-9F320ABF148C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9C68F3-87E9-4A31-B46C-781C64460505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38790" yWindow="3960" windowWidth="13680" windowHeight="11295" tabRatio="739" firstSheet="6" activeTab="6" xr2:uid="{10E33169-6FFE-4517-A0F7-180FCC84C7E1}"/>
   </bookViews>

--- a/要件仕様a.xlsx
+++ b/要件仕様a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Arduino_RaspberryPi\開発\08_棚ピカリ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9C68F3-87E9-4A31-B46C-781C64460505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFDA271-5746-4487-83B4-793B81029E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38790" yWindow="3960" windowWidth="13680" windowHeight="11295" tabRatio="739" firstSheet="6" activeTab="6" xr2:uid="{10E33169-6FFE-4517-A0F7-180FCC84C7E1}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" tabRatio="739" firstSheet="6" activeTab="6" xr2:uid="{10E33169-6FFE-4517-A0F7-180FCC84C7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="要件機能" sheetId="14" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="138">
   <si>
     <t>用途</t>
     <rPh sb="0" eb="2">
@@ -1180,6 +1180,23 @@
     <rPh sb="8" eb="10">
       <t>タナバン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not Null 引当回納連番</t>
+    <rPh sb="9" eb="11">
+      <t>ヒキアテ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not Null</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -50933,8 +50950,8 @@
   </sheetPr>
   <dimension ref="A1:AA116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -51437,6 +51454,9 @@
       <c r="I38" t="s">
         <v>69</v>
       </c>
+      <c r="J38" t="s">
+        <v>137</v>
+      </c>
       <c r="L38">
         <v>1</v>
       </c>
@@ -51447,7 +51467,7 @@
         <v>68</v>
       </c>
       <c r="O38" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -51476,7 +51496,7 @@
         <v>69</v>
       </c>
       <c r="J39" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="L39" t="s">
         <v>6</v>
